--- a/quanlysukien/public/samples/test_import_excel.xlsx
+++ b/quanlysukien/public/samples/test_import_excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Khach_Code_thue\QuanLySuKien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qlsk\QuanLySuKien\quanlysukien\public\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE86570-FFEE-4D74-A190-18CF121FD45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CED0A31-0F22-4C67-AEE4-A5B09B9E1449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{23DE46BB-BEFF-4369-AA6C-C8499396EC05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{23DE46BB-BEFF-4369-AA6C-C8499396EC05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
   <si>
     <t>a@gmail.com</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>Khoa</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Nu</t>
+  </si>
+  <si>
+    <t>Gioitinh</t>
   </si>
 </sst>
 </file>
@@ -549,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E896A4A-8775-40AD-82A0-75A2C1FCBE35}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +575,7 @@
     <col min="7" max="7" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -585,8 +594,11 @@
       <c r="F1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -605,8 +617,11 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -625,8 +640,11 @@
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -645,8 +663,11 @@
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -665,8 +686,11 @@
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -685,8 +709,11 @@
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -705,8 +732,11 @@
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -725,8 +755,11 @@
       <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -745,8 +778,11 @@
       <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -765,8 +801,11 @@
       <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -785,8 +824,11 @@
       <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -805,8 +847,11 @@
       <c r="F12" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -825,8 +870,11 @@
       <c r="F13" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -845,8 +893,11 @@
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -865,8 +916,11 @@
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -885,8 +939,11 @@
       <c r="F16" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -905,8 +962,11 @@
       <c r="F17" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -925,8 +985,11 @@
       <c r="F18" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -944,6 +1007,9 @@
       </c>
       <c r="F19" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
